--- a/natmiOut/OldD0/LR-pairs_lrc2p/Timp2-Itga3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Timp2-Itga3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.6882743130483</v>
+        <v>13.032878</v>
       </c>
       <c r="H2">
-        <v>11.6882743130483</v>
+        <v>39.098634</v>
       </c>
       <c r="I2">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="J2">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.20561225939693</v>
+        <v>8.269168666666666</v>
       </c>
       <c r="N2">
-        <v>3.20561225939693</v>
+        <v>24.807506</v>
       </c>
       <c r="O2">
-        <v>0.4577394851165908</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="P2">
-        <v>0.4577394851165908</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="Q2">
-        <v>37.46807542910186</v>
+        <v>107.7710663940893</v>
       </c>
       <c r="R2">
-        <v>37.46807542910186</v>
+        <v>969.939597546804</v>
       </c>
       <c r="S2">
-        <v>0.01236559354338749</v>
+        <v>0.01980908722458094</v>
       </c>
       <c r="T2">
-        <v>0.01236559354338749</v>
+        <v>0.01980908722458094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.6882743130483</v>
+        <v>13.032878</v>
       </c>
       <c r="H3">
-        <v>11.6882743130483</v>
+        <v>39.098634</v>
       </c>
       <c r="I3">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="J3">
-        <v>0.02701447864004533</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.79752459819889</v>
+        <v>0.121294</v>
       </c>
       <c r="N3">
-        <v>3.79752459819889</v>
+        <v>0.363882</v>
       </c>
       <c r="O3">
-        <v>0.5422605148834093</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="P3">
-        <v>0.5422605148834093</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="Q3">
-        <v>44.38650921429716</v>
+        <v>1.580809904132</v>
       </c>
       <c r="R3">
-        <v>44.38650921429716</v>
+        <v>14.227289137188</v>
       </c>
       <c r="S3">
-        <v>0.01464888509665785</v>
+        <v>0.0002905640848159006</v>
       </c>
       <c r="T3">
-        <v>0.01464888509665785</v>
+        <v>0.0002905640848159006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>388.341762861793</v>
+        <v>13.032878</v>
       </c>
       <c r="H4">
-        <v>388.341762861793</v>
+        <v>39.098634</v>
       </c>
       <c r="I4">
-        <v>0.8975533921338508</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="J4">
-        <v>0.8975533921338508</v>
+        <v>0.02949184097968156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.20561225939693</v>
+        <v>3.920705666666667</v>
       </c>
       <c r="N4">
-        <v>3.20561225939693</v>
+        <v>11.762117</v>
       </c>
       <c r="O4">
-        <v>0.4577394851165908</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="P4">
-        <v>0.4577394851165908</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="Q4">
-        <v>1244.873115865579</v>
+        <v>51.09807862757534</v>
       </c>
       <c r="R4">
-        <v>1244.873115865579</v>
+        <v>459.882707648178</v>
       </c>
       <c r="S4">
-        <v>0.4108456275799984</v>
+        <v>0.009392189670284724</v>
       </c>
       <c r="T4">
-        <v>0.4108456275799984</v>
+        <v>0.009392189670284724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>388.341762861793</v>
+        <v>395.9197996666667</v>
       </c>
       <c r="H5">
-        <v>388.341762861793</v>
+        <v>1187.759399</v>
       </c>
       <c r="I5">
-        <v>0.8975533921338508</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="J5">
-        <v>0.8975533921338508</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.79752459819889</v>
+        <v>8.269168666666666</v>
       </c>
       <c r="N5">
-        <v>3.79752459819889</v>
+        <v>24.807506</v>
       </c>
       <c r="O5">
-        <v>0.5422605148834093</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="P5">
-        <v>0.5422605148834093</v>
+        <v>0.671680253471746</v>
       </c>
       <c r="Q5">
-        <v>1474.737396975579</v>
+        <v>3273.927601916544</v>
       </c>
       <c r="R5">
-        <v>1474.737396975579</v>
+        <v>29465.34841724889</v>
       </c>
       <c r="S5">
-        <v>0.4867077645538525</v>
+        <v>0.6017711395392185</v>
       </c>
       <c r="T5">
-        <v>0.4867077645538525</v>
+        <v>0.6017711395392185</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.6369955222845</v>
+        <v>395.9197996666667</v>
       </c>
       <c r="H6">
-        <v>32.6369955222845</v>
+        <v>1187.759399</v>
       </c>
       <c r="I6">
-        <v>0.07543212922610387</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="J6">
-        <v>0.07543212922610387</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>3.20561225939693</v>
+        <v>0.121294</v>
       </c>
       <c r="N6">
-        <v>3.20561225939693</v>
+        <v>0.363882</v>
       </c>
       <c r="O6">
-        <v>0.4577394851165908</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="P6">
-        <v>0.4577394851165908</v>
+        <v>0.009852354928133683</v>
       </c>
       <c r="Q6">
-        <v>104.6215529561179</v>
+        <v>48.02269618076867</v>
       </c>
       <c r="R6">
-        <v>104.6215529561179</v>
+        <v>432.204265626918</v>
       </c>
       <c r="S6">
-        <v>0.03452826399320492</v>
+        <v>0.008826912540011476</v>
       </c>
       <c r="T6">
-        <v>0.03452826399320492</v>
+        <v>0.008826912540011476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.6369955222845</v>
+        <v>395.9197996666667</v>
       </c>
       <c r="H7">
-        <v>32.6369955222845</v>
+        <v>1187.759399</v>
       </c>
       <c r="I7">
-        <v>0.07543212922610387</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="J7">
-        <v>0.07543212922610387</v>
+        <v>0.8959190573622122</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.79752459819889</v>
+        <v>3.920705666666667</v>
       </c>
       <c r="N7">
-        <v>3.79752459819889</v>
+        <v>11.762117</v>
       </c>
       <c r="O7">
-        <v>0.5422605148834093</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="P7">
-        <v>0.5422605148834093</v>
+        <v>0.3184673916001203</v>
       </c>
       <c r="Q7">
-        <v>123.9397933071824</v>
+        <v>1552.285002098631</v>
       </c>
       <c r="R7">
-        <v>123.9397933071824</v>
+        <v>13970.56501888768</v>
       </c>
       <c r="S7">
-        <v>0.04090386523289895</v>
+        <v>0.2853210052829823</v>
       </c>
       <c r="T7">
-        <v>0.04090386523289895</v>
+        <v>0.2853210052829823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>32.96202033333334</v>
+      </c>
+      <c r="H8">
+        <v>98.886061</v>
+      </c>
+      <c r="I8">
+        <v>0.07458910165810628</v>
+      </c>
+      <c r="J8">
+        <v>0.07458910165810628</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>8.269168666666666</v>
+      </c>
+      <c r="N8">
+        <v>24.807506</v>
+      </c>
+      <c r="O8">
+        <v>0.671680253471746</v>
+      </c>
+      <c r="P8">
+        <v>0.671680253471746</v>
+      </c>
+      <c r="Q8">
+        <v>272.5685057304295</v>
+      </c>
+      <c r="R8">
+        <v>2453.116551573866</v>
+      </c>
+      <c r="S8">
+        <v>0.05010002670794666</v>
+      </c>
+      <c r="T8">
+        <v>0.05010002670794666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>32.96202033333334</v>
+      </c>
+      <c r="H9">
+        <v>98.886061</v>
+      </c>
+      <c r="I9">
+        <v>0.07458910165810628</v>
+      </c>
+      <c r="J9">
+        <v>0.07458910165810628</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.121294</v>
+      </c>
+      <c r="N9">
+        <v>0.363882</v>
+      </c>
+      <c r="O9">
+        <v>0.009852354928133683</v>
+      </c>
+      <c r="P9">
+        <v>0.009852354928133683</v>
+      </c>
+      <c r="Q9">
+        <v>3.998095294311334</v>
+      </c>
+      <c r="R9">
+        <v>35.982857648802</v>
+      </c>
+      <c r="S9">
+        <v>0.0007348783033063077</v>
+      </c>
+      <c r="T9">
+        <v>0.0007348783033063077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>32.96202033333334</v>
+      </c>
+      <c r="H10">
+        <v>98.886061</v>
+      </c>
+      <c r="I10">
+        <v>0.07458910165810628</v>
+      </c>
+      <c r="J10">
+        <v>0.07458910165810628</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.920705666666667</v>
+      </c>
+      <c r="N10">
+        <v>11.762117</v>
+      </c>
+      <c r="O10">
+        <v>0.3184673916001203</v>
+      </c>
+      <c r="P10">
+        <v>0.3184673916001203</v>
+      </c>
+      <c r="Q10">
+        <v>129.2343799056819</v>
+      </c>
+      <c r="R10">
+        <v>1163.109419151137</v>
+      </c>
+      <c r="S10">
+        <v>0.02375419664685332</v>
+      </c>
+      <c r="T10">
+        <v>0.02375419664685332</v>
       </c>
     </row>
   </sheetData>
